--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.243714</v>
+        <v>42.48700833333334</v>
       </c>
       <c r="H2">
-        <v>108.731142</v>
+        <v>127.461025</v>
       </c>
       <c r="I2">
-        <v>0.8649908629189639</v>
+        <v>0.8741865936964721</v>
       </c>
       <c r="J2">
-        <v>0.8684205217155003</v>
+        <v>0.877455058515614</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.312813333333333</v>
+        <v>1.802415666666667</v>
       </c>
       <c r="N2">
-        <v>6.93844</v>
+        <v>5.407247</v>
       </c>
       <c r="O2">
-        <v>0.2584835377141118</v>
+        <v>0.1831574081839677</v>
       </c>
       <c r="P2">
-        <v>0.274740130058117</v>
+        <v>0.1961662442954491</v>
       </c>
       <c r="Q2">
-        <v>83.82494498872001</v>
+        <v>76.57924944979723</v>
       </c>
       <c r="R2">
-        <v>754.42450489848</v>
+        <v>689.2132450481751</v>
       </c>
       <c r="S2">
-        <v>0.2235858983376761</v>
+        <v>0.160113750770617</v>
       </c>
       <c r="T2">
-        <v>0.2385899670812544</v>
+        <v>0.1721270633670515</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.243714</v>
+        <v>42.48700833333334</v>
       </c>
       <c r="H3">
-        <v>108.731142</v>
+        <v>127.461025</v>
       </c>
       <c r="I3">
-        <v>0.8649908629189639</v>
+        <v>0.8741865936964721</v>
       </c>
       <c r="J3">
-        <v>0.8684205217155003</v>
+        <v>0.877455058515614</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>10.113169</v>
       </c>
       <c r="O3">
-        <v>0.3767543858015183</v>
+        <v>0.3425591289923409</v>
       </c>
       <c r="P3">
-        <v>0.4004492892292385</v>
+        <v>0.3668895429883566</v>
       </c>
       <c r="Q3">
-        <v>122.179601623222</v>
+        <v>143.2260985264695</v>
       </c>
       <c r="R3">
-        <v>1099.616414608998</v>
+        <v>1289.034886738225</v>
       </c>
       <c r="S3">
-        <v>0.3258891012829595</v>
+        <v>0.2994605981134449</v>
       </c>
       <c r="T3">
-        <v>0.3477583806730566</v>
+        <v>0.3219290854116153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.243714</v>
+        <v>42.48700833333334</v>
       </c>
       <c r="H4">
-        <v>108.731142</v>
+        <v>127.461025</v>
       </c>
       <c r="I4">
-        <v>0.8649908629189639</v>
+        <v>0.8741865936964721</v>
       </c>
       <c r="J4">
-        <v>0.8684205217155003</v>
+        <v>0.877455058515614</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.824507</v>
+        <v>0.9204736666666666</v>
       </c>
       <c r="N4">
-        <v>2.473521</v>
+        <v>2.761421</v>
       </c>
       <c r="O4">
-        <v>0.09214815703387902</v>
+        <v>0.09353645455160088</v>
       </c>
       <c r="P4">
-        <v>0.0979435552143542</v>
+        <v>0.1001799227016231</v>
       </c>
       <c r="Q4">
-        <v>29.883195898998</v>
+        <v>39.10817234628055</v>
       </c>
       <c r="R4">
-        <v>268.948763090982</v>
+        <v>351.973551116525</v>
       </c>
       <c r="S4">
-        <v>0.0797073138691272</v>
+        <v>0.08176831459090884</v>
       </c>
       <c r="T4">
-        <v>0.08505619331792039</v>
+        <v>0.08790337993624237</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.243714</v>
+        <v>42.48700833333334</v>
       </c>
       <c r="H5">
-        <v>108.731142</v>
+        <v>127.461025</v>
       </c>
       <c r="I5">
-        <v>0.8649908629189639</v>
+        <v>0.8741865936964721</v>
       </c>
       <c r="J5">
-        <v>0.8684205217155003</v>
+        <v>0.877455058515614</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.588314</v>
+        <v>1.957789</v>
       </c>
       <c r="N5">
-        <v>3.176628</v>
+        <v>3.915578</v>
       </c>
       <c r="O5">
-        <v>0.1775123896960348</v>
+        <v>0.1989460953112084</v>
       </c>
       <c r="P5">
-        <v>0.1257843535241721</v>
+        <v>0.142050886616773</v>
       </c>
       <c r="Q5">
-        <v>57.566398358196</v>
+        <v>83.18059755790834</v>
       </c>
       <c r="R5">
-        <v>345.398390149176</v>
+        <v>499.08358534745</v>
       </c>
       <c r="S5">
-        <v>0.1535465951419805</v>
+        <v>0.1739160093893189</v>
       </c>
       <c r="T5">
-        <v>0.1092337139111084</v>
+        <v>0.1246432690285154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.243714</v>
+        <v>42.48700833333334</v>
       </c>
       <c r="H6">
-        <v>108.731142</v>
+        <v>127.461025</v>
       </c>
       <c r="I6">
-        <v>0.8649908629189639</v>
+        <v>0.8741865936964721</v>
       </c>
       <c r="J6">
-        <v>0.8684205217155003</v>
+        <v>0.877455058515614</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8509326666666667</v>
+        <v>1.789066666666667</v>
       </c>
       <c r="N6">
-        <v>2.552798</v>
+        <v>5.3672</v>
       </c>
       <c r="O6">
-        <v>0.09510152975445622</v>
+        <v>0.1818009129608822</v>
       </c>
       <c r="P6">
-        <v>0.1010826719741183</v>
+        <v>0.1947134033977982</v>
       </c>
       <c r="Q6">
-        <v>30.840960203924</v>
+        <v>76.01209037555556</v>
       </c>
       <c r="R6">
-        <v>277.568641835316</v>
+        <v>684.10881338</v>
       </c>
       <c r="S6">
-        <v>0.08226195428722061</v>
+        <v>0.1589279208321824</v>
       </c>
       <c r="T6">
-        <v>0.08778226673216057</v>
+        <v>0.1708522607721894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.488721</v>
       </c>
       <c r="I7">
-        <v>0.003887931201132964</v>
+        <v>0.003351874396568939</v>
       </c>
       <c r="J7">
-        <v>0.003903346713615139</v>
+        <v>0.003364406599215795</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.312813333333333</v>
+        <v>1.802415666666667</v>
       </c>
       <c r="N7">
-        <v>6.93844</v>
+        <v>5.407247</v>
       </c>
       <c r="O7">
-        <v>0.2584835377141118</v>
+        <v>0.1831574081839677</v>
       </c>
       <c r="P7">
-        <v>0.274740130058117</v>
+        <v>0.1961662442954491</v>
       </c>
       <c r="Q7">
-        <v>0.3767734816933333</v>
+        <v>0.2936261290096667</v>
       </c>
       <c r="R7">
-        <v>3.39096133524</v>
+        <v>2.642635161087</v>
       </c>
       <c r="S7">
-        <v>0.001004966211257925</v>
+        <v>0.0006139206270337676</v>
       </c>
       <c r="T7">
-        <v>0.001072405983760547</v>
+        <v>0.0006599830068509865</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.488721</v>
       </c>
       <c r="I8">
-        <v>0.003887931201132964</v>
+        <v>0.003351874396568939</v>
       </c>
       <c r="J8">
-        <v>0.003903346713615139</v>
+        <v>0.003364406599215795</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>10.113169</v>
       </c>
       <c r="O8">
-        <v>0.3767543858015183</v>
+        <v>0.3425591289923409</v>
       </c>
       <c r="P8">
-        <v>0.4004492892292385</v>
+        <v>0.3668895429883566</v>
       </c>
       <c r="Q8">
         <v>0.5491686740943333</v>
       </c>
       <c r="R8">
-        <v>4.942518066848999</v>
+        <v>4.942518066849</v>
       </c>
       <c r="S8">
-        <v>0.001464795131721409</v>
+        <v>0.001148215173780384</v>
       </c>
       <c r="T8">
-        <v>0.001563092417082466</v>
+        <v>0.001234365599613294</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.488721</v>
       </c>
       <c r="I9">
-        <v>0.003887931201132964</v>
+        <v>0.003351874396568939</v>
       </c>
       <c r="J9">
-        <v>0.003903346713615139</v>
+        <v>0.003364406599215795</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.824507</v>
+        <v>0.9204736666666666</v>
       </c>
       <c r="N9">
-        <v>2.473521</v>
+        <v>2.761421</v>
       </c>
       <c r="O9">
-        <v>0.09214815703387902</v>
+        <v>0.09353645455160088</v>
       </c>
       <c r="P9">
-        <v>0.0979435552143542</v>
+        <v>0.1001799227016231</v>
       </c>
       <c r="Q9">
-        <v>0.134317961849</v>
+        <v>0.1499516036156666</v>
       </c>
       <c r="R9">
-        <v>1.208861656641</v>
+        <v>1.349564432541</v>
       </c>
       <c r="S9">
-        <v>0.0003582656948589183</v>
+        <v>0.0003135224471573452</v>
       </c>
       <c r="T9">
-        <v>0.0003823076543657324</v>
+        <v>0.0003370459930462688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.488721</v>
       </c>
       <c r="I10">
-        <v>0.003887931201132964</v>
+        <v>0.003351874396568939</v>
       </c>
       <c r="J10">
-        <v>0.003903346713615139</v>
+        <v>0.003364406599215795</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.588314</v>
+        <v>1.957789</v>
       </c>
       <c r="N10">
-        <v>3.176628</v>
+        <v>3.915578</v>
       </c>
       <c r="O10">
-        <v>0.1775123896960348</v>
+        <v>0.1989460953112084</v>
       </c>
       <c r="P10">
-        <v>0.1257843535241721</v>
+        <v>0.142050886616773</v>
       </c>
       <c r="Q10">
-        <v>0.258747468798</v>
+        <v>0.318937532623</v>
       </c>
       <c r="R10">
-        <v>1.552484812788</v>
+        <v>1.913625195738</v>
       </c>
       <c r="S10">
-        <v>0.0006901559584868872</v>
+        <v>0.0006668423231710034</v>
       </c>
       <c r="T10">
-        <v>0.0004909799429527818</v>
+        <v>0.0004779169403579256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.488721</v>
       </c>
       <c r="I11">
-        <v>0.003887931201132964</v>
+        <v>0.003351874396568939</v>
       </c>
       <c r="J11">
-        <v>0.003903346713615139</v>
+        <v>0.003364406599215795</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8509326666666667</v>
+        <v>1.789066666666667</v>
       </c>
       <c r="N11">
-        <v>2.552798</v>
+        <v>5.3672</v>
       </c>
       <c r="O11">
-        <v>0.09510152975445622</v>
+        <v>0.1818009129608822</v>
       </c>
       <c r="P11">
-        <v>0.1010826719741183</v>
+        <v>0.1947134033977982</v>
       </c>
       <c r="Q11">
-        <v>0.1386228879286667</v>
+        <v>0.2914514834666667</v>
       </c>
       <c r="R11">
-        <v>1.247605991358</v>
+        <v>2.6230633512</v>
       </c>
       <c r="S11">
-        <v>0.0003697482048078253</v>
+        <v>0.0006093738254264393</v>
       </c>
       <c r="T11">
-        <v>0.0003945607154536117</v>
+        <v>0.0006550950593473194</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.035480333333334</v>
+        <v>3.784599666666667</v>
       </c>
       <c r="H12">
-        <v>9.106441</v>
+        <v>11.353799</v>
       </c>
       <c r="I12">
-        <v>0.07244463834207344</v>
+        <v>0.07786959875243754</v>
       </c>
       <c r="J12">
-        <v>0.07273187882264147</v>
+        <v>0.07816074259499733</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.312813333333333</v>
+        <v>1.802415666666667</v>
       </c>
       <c r="N12">
-        <v>6.93844</v>
+        <v>5.407247</v>
       </c>
       <c r="O12">
-        <v>0.2584835377141118</v>
+        <v>0.1831574081839677</v>
       </c>
       <c r="P12">
-        <v>0.274740130058117</v>
+        <v>0.1961662442954491</v>
       </c>
       <c r="Q12">
-        <v>7.020499388004445</v>
+        <v>6.821421731261444</v>
       </c>
       <c r="R12">
-        <v>63.18449449204</v>
+        <v>61.392795581353</v>
       </c>
       <c r="S12">
-        <v>0.01872574640707853</v>
+        <v>0.01426239388382198</v>
       </c>
       <c r="T12">
-        <v>0.01998236584710373</v>
+        <v>0.01533249932620396</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.035480333333334</v>
+        <v>3.784599666666667</v>
       </c>
       <c r="H13">
-        <v>9.106441</v>
+        <v>11.353799</v>
       </c>
       <c r="I13">
-        <v>0.07244463834207344</v>
+        <v>0.07786959875243754</v>
       </c>
       <c r="J13">
-        <v>0.07273187882264147</v>
+        <v>0.07816074259499733</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>10.113169</v>
       </c>
       <c r="O13">
-        <v>0.3767543858015183</v>
+        <v>0.3425591289923409</v>
       </c>
       <c r="P13">
-        <v>0.4004492892292385</v>
+        <v>0.3668895429883566</v>
       </c>
       <c r="Q13">
-        <v>10.23277520239211</v>
+        <v>12.75809867544789</v>
       </c>
       <c r="R13">
-        <v>92.09497682152899</v>
+        <v>114.822888079031</v>
       </c>
       <c r="S13">
-        <v>0.027293835223181</v>
+        <v>0.02667494192361808</v>
       </c>
       <c r="T13">
-        <v>0.02912542917883388</v>
+        <v>0.02867635913030915</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.035480333333334</v>
+        <v>3.784599666666667</v>
       </c>
       <c r="H14">
-        <v>9.106441</v>
+        <v>11.353799</v>
       </c>
       <c r="I14">
-        <v>0.07244463834207344</v>
+        <v>0.07786959875243754</v>
       </c>
       <c r="J14">
-        <v>0.07273187882264147</v>
+        <v>0.07816074259499733</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.824507</v>
+        <v>0.9204736666666666</v>
       </c>
       <c r="N14">
-        <v>2.473521</v>
+        <v>2.761421</v>
       </c>
       <c r="O14">
-        <v>0.09214815703387902</v>
+        <v>0.09353645455160088</v>
       </c>
       <c r="P14">
-        <v>0.0979435552143542</v>
+        <v>0.1001799227016231</v>
       </c>
       <c r="Q14">
-        <v>2.502774783195667</v>
+        <v>3.483624332042111</v>
       </c>
       <c r="R14">
-        <v>22.524973048761</v>
+        <v>31.352618988379</v>
       </c>
       <c r="S14">
-        <v>0.006675639910207956</v>
+        <v>0.00728364618465877</v>
       </c>
       <c r="T14">
-        <v>0.007123618789309104</v>
+        <v>0.00783013715146829</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.035480333333334</v>
+        <v>3.784599666666667</v>
       </c>
       <c r="H15">
-        <v>9.106441</v>
+        <v>11.353799</v>
       </c>
       <c r="I15">
-        <v>0.07244463834207344</v>
+        <v>0.07786959875243754</v>
       </c>
       <c r="J15">
-        <v>0.07273187882264147</v>
+        <v>0.07816074259499733</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.588314</v>
+        <v>1.957789</v>
       </c>
       <c r="N15">
-        <v>3.176628</v>
+        <v>3.915578</v>
       </c>
       <c r="O15">
-        <v>0.1775123896960348</v>
+        <v>0.1989460953112084</v>
       </c>
       <c r="P15">
-        <v>0.1257843535241721</v>
+        <v>0.142050886616773</v>
       </c>
       <c r="Q15">
-        <v>4.821295910158001</v>
+        <v>7.409447596803667</v>
       </c>
       <c r="R15">
-        <v>28.927775460948</v>
+        <v>44.456685580822</v>
       </c>
       <c r="S15">
-        <v>0.01285982087276644</v>
+        <v>0.015491852615248</v>
       </c>
       <c r="T15">
-        <v>0.009148532358304377</v>
+        <v>0.01110280278424474</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.035480333333334</v>
+        <v>3.784599666666667</v>
       </c>
       <c r="H16">
-        <v>9.106441</v>
+        <v>11.353799</v>
       </c>
       <c r="I16">
-        <v>0.07244463834207344</v>
+        <v>0.07786959875243754</v>
       </c>
       <c r="J16">
-        <v>0.07273187882264147</v>
+        <v>0.07816074259499733</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8509326666666667</v>
+        <v>1.789066666666667</v>
       </c>
       <c r="N16">
-        <v>2.552798</v>
+        <v>5.3672</v>
       </c>
       <c r="O16">
-        <v>0.09510152975445622</v>
+        <v>0.1818009129608822</v>
       </c>
       <c r="P16">
-        <v>0.1010826719741183</v>
+        <v>0.1947134033977982</v>
       </c>
       <c r="Q16">
-        <v>2.582989374657556</v>
+        <v>6.770901110311111</v>
       </c>
       <c r="R16">
-        <v>23.246904371918</v>
+        <v>60.93810999279999</v>
       </c>
       <c r="S16">
-        <v>0.006889595928839518</v>
+        <v>0.01415676414509072</v>
       </c>
       <c r="T16">
-        <v>0.007351932649090387</v>
+        <v>0.01521894420277119</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.496436</v>
+        <v>0.5431155000000001</v>
       </c>
       <c r="H17">
-        <v>0.992872</v>
+        <v>1.086231</v>
       </c>
       <c r="I17">
-        <v>0.01184791944953651</v>
+        <v>0.01117481101996684</v>
       </c>
       <c r="J17">
-        <v>0.007929930693054914</v>
+        <v>0.007477728079359741</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.312813333333333</v>
+        <v>1.802415666666667</v>
       </c>
       <c r="N17">
-        <v>6.93844</v>
+        <v>5.407247</v>
       </c>
       <c r="O17">
-        <v>0.2584835377141118</v>
+        <v>0.1831574081839677</v>
       </c>
       <c r="P17">
-        <v>0.274740130058117</v>
+        <v>0.1961662442954491</v>
       </c>
       <c r="Q17">
-        <v>1.148163799946667</v>
+        <v>0.9789198860095001</v>
       </c>
       <c r="R17">
-        <v>6.88898279968</v>
+        <v>5.873519316057001</v>
       </c>
       <c r="S17">
-        <v>0.003062492133868029</v>
+        <v>0.002046749423362767</v>
       </c>
       <c r="T17">
-        <v>0.002178670189961761</v>
+        <v>0.001466877833190622</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.496436</v>
+        <v>0.5431155000000001</v>
       </c>
       <c r="H18">
-        <v>0.992872</v>
+        <v>1.086231</v>
       </c>
       <c r="I18">
-        <v>0.01184791944953651</v>
+        <v>0.01117481101996684</v>
       </c>
       <c r="J18">
-        <v>0.007929930693054914</v>
+        <v>0.007477728079359741</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>10.113169</v>
       </c>
       <c r="O18">
-        <v>0.3767543858015183</v>
+        <v>0.3425591289923409</v>
       </c>
       <c r="P18">
-        <v>0.4004492892292385</v>
+        <v>0.3668895429883566</v>
       </c>
       <c r="Q18">
-        <v>1.673513721894667</v>
+        <v>1.8308729460065</v>
       </c>
       <c r="R18">
-        <v>10.041082331368</v>
+        <v>10.985237676039</v>
       </c>
       <c r="S18">
-        <v>0.00446375561523599</v>
+        <v>0.003828033529653853</v>
       </c>
       <c r="T18">
-        <v>0.003175535109670963</v>
+        <v>0.002743500237627497</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.496436</v>
+        <v>0.5431155000000001</v>
       </c>
       <c r="H19">
-        <v>0.992872</v>
+        <v>1.086231</v>
       </c>
       <c r="I19">
-        <v>0.01184791944953651</v>
+        <v>0.01117481101996684</v>
       </c>
       <c r="J19">
-        <v>0.007929930693054914</v>
+        <v>0.007477728079359741</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.824507</v>
+        <v>0.9204736666666666</v>
       </c>
       <c r="N19">
-        <v>2.473521</v>
+        <v>2.761421</v>
       </c>
       <c r="O19">
-        <v>0.09214815703387902</v>
+        <v>0.09353645455160088</v>
       </c>
       <c r="P19">
-        <v>0.0979435552143542</v>
+        <v>0.1001799227016231</v>
       </c>
       <c r="Q19">
-        <v>0.409314957052</v>
+        <v>0.4999235157085001</v>
       </c>
       <c r="R19">
-        <v>2.455889742312</v>
+        <v>2.999541094251001</v>
       </c>
       <c r="S19">
-        <v>0.00109176394196064</v>
+        <v>0.001045252203091857</v>
       </c>
       <c r="T19">
-        <v>0.000776685604681226</v>
+        <v>0.0007491182209740152</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.496436</v>
+        <v>0.5431155000000001</v>
       </c>
       <c r="H20">
-        <v>0.992872</v>
+        <v>1.086231</v>
       </c>
       <c r="I20">
-        <v>0.01184791944953651</v>
+        <v>0.01117481101996684</v>
       </c>
       <c r="J20">
-        <v>0.007929930693054914</v>
+        <v>0.007477728079359741</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.588314</v>
+        <v>1.957789</v>
       </c>
       <c r="N20">
-        <v>3.176628</v>
+        <v>3.915578</v>
       </c>
       <c r="O20">
-        <v>0.1775123896960348</v>
+        <v>0.1989460953112084</v>
       </c>
       <c r="P20">
-        <v>0.1257843535241721</v>
+        <v>0.142050886616773</v>
       </c>
       <c r="Q20">
-        <v>0.7884962489039999</v>
+        <v>1.0633055516295</v>
       </c>
       <c r="R20">
-        <v>3.153984995616</v>
+        <v>4.253222206518001</v>
       </c>
       <c r="S20">
-        <v>0.002103152494413355</v>
+        <v>0.002223185018263065</v>
       </c>
       <c r="T20">
-        <v>0.0009974612057174019</v>
+        <v>0.00106221790355219</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.496436</v>
+        <v>0.5431155000000001</v>
       </c>
       <c r="H21">
-        <v>0.992872</v>
+        <v>1.086231</v>
       </c>
       <c r="I21">
-        <v>0.01184791944953651</v>
+        <v>0.01117481101996684</v>
       </c>
       <c r="J21">
-        <v>0.007929930693054914</v>
+        <v>0.007477728079359741</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.8509326666666667</v>
+        <v>1.789066666666667</v>
       </c>
       <c r="N21">
-        <v>2.552798</v>
+        <v>5.3672</v>
       </c>
       <c r="O21">
-        <v>0.09510152975445622</v>
+        <v>0.1818009129608822</v>
       </c>
       <c r="P21">
-        <v>0.1010826719741183</v>
+        <v>0.1947134033977982</v>
       </c>
       <c r="Q21">
-        <v>0.4224336093093333</v>
+        <v>0.9716698372000001</v>
       </c>
       <c r="R21">
-        <v>2.534601655856</v>
+        <v>5.8300190232</v>
       </c>
       <c r="S21">
-        <v>0.001126755264058497</v>
+        <v>0.002031590845595299</v>
       </c>
       <c r="T21">
-        <v>0.0008015785830235622</v>
+        <v>0.001456013884015416</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.962152666666667</v>
+        <v>1.624131</v>
       </c>
       <c r="H22">
-        <v>5.886458</v>
+        <v>4.872393</v>
       </c>
       <c r="I22">
-        <v>0.04682864808829321</v>
+        <v>0.03341712213455474</v>
       </c>
       <c r="J22">
-        <v>0.04701432205518803</v>
+        <v>0.03354206421081321</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.312813333333333</v>
+        <v>1.802415666666667</v>
       </c>
       <c r="N22">
-        <v>6.93844</v>
+        <v>5.407247</v>
       </c>
       <c r="O22">
-        <v>0.2584835377141118</v>
+        <v>0.1831574081839677</v>
       </c>
       <c r="P22">
-        <v>0.274740130058117</v>
+        <v>0.1961662442954491</v>
       </c>
       <c r="Q22">
-        <v>4.538092849502222</v>
+        <v>2.927359159119</v>
       </c>
       <c r="R22">
-        <v>40.84283564552</v>
+        <v>26.346232432071</v>
       </c>
       <c r="S22">
-        <v>0.01210443462423121</v>
+        <v>0.006120593479132143</v>
       </c>
       <c r="T22">
-        <v>0.01291672095603656</v>
+        <v>0.006579820762152023</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.962152666666667</v>
+        <v>1.624131</v>
       </c>
       <c r="H23">
-        <v>5.886458</v>
+        <v>4.872393</v>
       </c>
       <c r="I23">
-        <v>0.04682864808829321</v>
+        <v>0.03341712213455474</v>
       </c>
       <c r="J23">
-        <v>0.04701432205518803</v>
+        <v>0.03354206421081321</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>10.113169</v>
       </c>
       <c r="O23">
-        <v>0.3767543858015183</v>
+        <v>0.3425591289923409</v>
       </c>
       <c r="P23">
-        <v>0.4004492892292385</v>
+        <v>0.3668895429883566</v>
       </c>
       <c r="Q23">
-        <v>6.614527173933555</v>
+        <v>5.475037093713</v>
       </c>
       <c r="R23">
-        <v>59.530744565402</v>
+        <v>49.27533384341699</v>
       </c>
       <c r="S23">
-        <v>0.01764289854842035</v>
+        <v>0.01144734025184375</v>
       </c>
       <c r="T23">
-        <v>0.01882685185059456</v>
+        <v>0.01230623260919137</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.962152666666667</v>
+        <v>1.624131</v>
       </c>
       <c r="H24">
-        <v>5.886458</v>
+        <v>4.872393</v>
       </c>
       <c r="I24">
-        <v>0.04682864808829321</v>
+        <v>0.03341712213455474</v>
       </c>
       <c r="J24">
-        <v>0.04701432205518803</v>
+        <v>0.03354206421081321</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.824507</v>
+        <v>0.9204736666666666</v>
       </c>
       <c r="N24">
-        <v>2.473521</v>
+        <v>2.761421</v>
       </c>
       <c r="O24">
-        <v>0.09214815703387902</v>
+        <v>0.09353645455160088</v>
       </c>
       <c r="P24">
-        <v>0.0979435552143542</v>
+        <v>0.1001799227016231</v>
       </c>
       <c r="Q24">
-        <v>1.617808608735333</v>
+        <v>1.494969816717</v>
       </c>
       <c r="R24">
-        <v>14.560277478618</v>
+        <v>13.454728350453</v>
       </c>
       <c r="S24">
-        <v>0.004315173617724302</v>
+        <v>0.003125719125784075</v>
       </c>
       <c r="T24">
-        <v>0.004604749848077739</v>
+        <v>0.003360241399892145</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.962152666666667</v>
+        <v>1.624131</v>
       </c>
       <c r="H25">
-        <v>5.886458</v>
+        <v>4.872393</v>
       </c>
       <c r="I25">
-        <v>0.04682864808829321</v>
+        <v>0.03341712213455474</v>
       </c>
       <c r="J25">
-        <v>0.04701432205518803</v>
+        <v>0.03354206421081321</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.588314</v>
+        <v>1.957789</v>
       </c>
       <c r="N25">
-        <v>3.176628</v>
+        <v>3.915578</v>
       </c>
       <c r="O25">
-        <v>0.1775123896960348</v>
+        <v>0.1989460953112084</v>
       </c>
       <c r="P25">
-        <v>0.1257843535241721</v>
+        <v>0.142050886616773</v>
       </c>
       <c r="Q25">
-        <v>3.116514550604</v>
+        <v>3.179705806359</v>
       </c>
       <c r="R25">
-        <v>18.699087303624</v>
+        <v>19.078234838154</v>
       </c>
       <c r="S25">
-        <v>0.008312665228387578</v>
+        <v>0.006648205965207419</v>
       </c>
       <c r="T25">
-        <v>0.00591366610608905</v>
+        <v>0.004764679960102746</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.962152666666667</v>
+        <v>1.624131</v>
       </c>
       <c r="H26">
-        <v>5.886458</v>
+        <v>4.872393</v>
       </c>
       <c r="I26">
-        <v>0.04682864808829321</v>
+        <v>0.03341712213455474</v>
       </c>
       <c r="J26">
-        <v>0.04701432205518803</v>
+        <v>0.03354206421081321</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.8509326666666667</v>
+        <v>1.789066666666667</v>
       </c>
       <c r="N26">
-        <v>2.552798</v>
+        <v>5.3672</v>
       </c>
       <c r="O26">
-        <v>0.09510152975445622</v>
+        <v>0.1818009129608822</v>
       </c>
       <c r="P26">
-        <v>0.1010826719741183</v>
+        <v>0.1947134033977982</v>
       </c>
       <c r="Q26">
-        <v>1.669659801053778</v>
+        <v>2.9056786344</v>
       </c>
       <c r="R26">
-        <v>15.026938209484</v>
+        <v>26.1511077096</v>
       </c>
       <c r="S26">
-        <v>0.004453476069529777</v>
+        <v>0.006075263312587355</v>
       </c>
       <c r="T26">
-        <v>0.004752333294390125</v>
+        <v>0.006531089479474923</v>
       </c>
     </row>
   </sheetData>
